--- a/Simulator/Results/target-0.xlsx
+++ b/Simulator/Results/target-0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">Drone</t>
   </si>
@@ -37,10 +37,13 @@
     <t xml:space="preserve">interval recharges</t>
   </si>
   <si>
-    <t xml:space="preserve">stop</t>
+    <t xml:space="preserve">manouvers</t>
   </si>
   <si>
     <t xml:space="preserve">target was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_interval</t>
   </si>
   <si>
     <t xml:space="preserve">ncc</t>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">inteval recharges</t>
   </si>
   <si>
+    <t xml:space="preserve">Manouvers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Target</t>
   </si>
 </sst>
@@ -74,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,6 +102,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +153,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,6 +175,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4C4C4C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -162,20 +243,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,32 +296,38 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>10</v>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,57 +338,68 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>817.583333333333</v>
+        <v>701.666666666667</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>702.428571428571</v>
+        <v>701.285714285714</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v>220.431818181818</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <f aca="false">AVERAGE(B2,B6,B10,B14,B18,B22,B26,B30,B34,B38,B42,B46,B50,B54,B58,B62,B66,B70,B74,B78,B82,B86,B90,B94,B98,B102,B106,B110,B114,B118)</f>
-        <v>14.5666666666667</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>14.0666666666667</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B2,B6,B10,B14,B18,B22,B26,B30,B34,B38,B42,B46,B50,B54,B58,B62,B66,B70,B74,B78,B82,B86,B90,B94,B98,B102,B106,B110,B114,B118)</f>
-        <v>4.7094467710007</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>4.17079795189788</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <f aca="false">AVERAGE(C2,C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C86,C90,C94,C98,C102,C106,C110,C114,C118)</f>
-        <v>686.813030178742</v>
-      </c>
-      <c r="N2" s="0" t="n">
+        <v>712.094513385757</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C2,C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C86,C90,C94,C98,C102,C106,C110,C114,C118)</f>
-        <v>233.602573679994</v>
-      </c>
-      <c r="O2" s="0" t="n">
+        <v>269.187474113418</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <f aca="false">AVERAGE(D2,D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46,D50,D54,D58,D62,D66,D70,D74,D78,D82,D86,D90,D94,D98,D102,D106,D110,D114,D118)</f>
         <v>14</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(D2,D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46,D50,D54,D58,D62,D66,D70,D74,D78,D82,D86,D90,D94,D98,D102,D106,D110,D114,D118)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <f aca="false">AVERAGE(E2,E6,E10,E14,E18,E22,E26,E30,E34,E38,E42,E46,E50,E54,E58,E62,E66,E70,E74,E78,E82,E86,E90,E94,E98,E102,E106,E110,E114,E118)</f>
-        <v>701.957142857143</v>
-      </c>
-      <c r="R2" s="0" t="n">
+        <v>701.966666666667</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E2,E6,E10,E14,E18,E22,E26,E30,E34,E38,E42,E46,E50,E54,E58,E62,E66,E70,E74,E78,E82,E86,E90,E94,E98,E102,E106,E110,E114,E118)</f>
-        <v>0.708212274569162</v>
+        <v>0.900440809156079</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <f aca="false">AVERAGE(F2,F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46,F50,F54,F58,F62,F66,F70,F74,F78,F82,F86,F90,F94,F98,F102,F106,F110,F114,F118)</f>
+        <v>1967.86666666667</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F2,F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46,F50,F54,F58,F62,F66,F70,F74,F78,F82,F86,F90,F94,F98,F102,F106,F110,F114,F118)</f>
+        <v>111.584865560802</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,51 +410,59 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>724.615384615385</v>
+        <v>723.923076923077</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>702.5</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">AVERAGE(B3,B7,B11,B15,B19,B23,B27,B31,B35,B39,B43,B47,B51,B55,B59,B63,B67,B71,B75,B79,B83,B87,B91,B95,B99,B103,B107,B111,B115,B119)</f>
-        <v>13.7666666666667</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B3,B7,B11,B15,B19,B23,B27,B31,B35,B39,B43,B47,B51,B55,B59,B63,B67,B71,B75,B79,B83,B87,B91,B95,B99,B103,B107,B111,B115,B119)</f>
-        <v>4.0553120170408</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>3.81750354725878</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <f aca="false">AVERAGE(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43,C47,C51,C55,C59,C63,C67,C71,C75,C79,C83,C87,C91,C95,C99,C103,C107,C111,C115,C119)</f>
-        <v>729.395710817198</v>
-      </c>
-      <c r="N3" s="0" t="n">
+        <v>735.774485294118</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43,C47,C51,C55,C59,C63,C67,C71,C75,C79,C83,C87,C91,C95,C99,C103,C107,C111,C115,C119)</f>
-        <v>206.290905667797</v>
-      </c>
-      <c r="O3" s="0" t="n">
+        <v>221.899128488687</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <f aca="false">AVERAGE(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43,D47,D51,D55,D59,D63,D67,D71,D75,D79,D83,D87,D91,D95,D99,D103,D107,D111,D115,D119)</f>
         <v>14</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43,D47,D51,D55,D59,D63,D67,D71,D75,D79,D83,D87,D91,D95,D99,D103,D107,D111,D115,D119)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <f aca="false">AVERAGE(E3,E7,E11,E15,E19,E23,E27,E31,E35,E39,E43,E47,E51,E55,E59,E63,E67,E71,E75,E79,E83,E87,E91,E95,E99,E103,E107,E111,E115,E119)</f>
-        <v>702.014285714286</v>
-      </c>
-      <c r="R3" s="0" t="n">
+        <v>702.054761904762</v>
+      </c>
+      <c r="R3" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E3,E7,E11,E15,E19,E23,E27,E31,E35,E39,E43,E47,E51,E55,E59,E63,E67,E71,E75,E79,E83,E87,E91,E95,E99,E103,E107,E111,E115,E119)</f>
-        <v>0.621168527966536</v>
+        <v>0.629134848499414</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <f aca="false">AVERAGE(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43,F47,F51,F55,F59,F63,F67,F71,F75,F79,F83,F87,F91,F95,F99,F103,F107,F111,F115,F119)</f>
+        <v>1970.5</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43,F47,F51,F55,F59,F63,F67,F71,F75,F79,F83,F87,F91,F95,F99,F103,F107,F111,F115,F119)</f>
+        <v>76.4986927992891</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,54 +470,62 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>591.625</v>
+        <v>969.9</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60,B64,B68,B72,B76,B80,B84,B88,B92,B96,B100,B104,B108,B112,B116,B120)</f>
-        <v>12.5666666666667</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>13.9333333333333</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60,B64,B68,B72,B76,B80,B84,B88,B92,B96,B100,B104,B108,B112,B116,B120)</f>
-        <v>3.91308346732116</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>3.31595469745224</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <f aca="false">AVERAGE(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60,C64,C68,C72,C76,C80,C84,C88,C92,C96,C100,C104,C108,C112,C116,C120)</f>
-        <v>843.575146609926</v>
-      </c>
-      <c r="N4" s="0" t="n">
+        <v>688.988292384144</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60,C64,C68,C72,C76,C80,C84,C88,C92,C96,C100,C104,C108,C112,C116,C120)</f>
-        <v>400.284014836338</v>
-      </c>
-      <c r="O4" s="0" t="n">
+        <v>145.940402234229</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <f aca="false">AVERAGE(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44,D48,D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92,D96,D100,D104,D108,D112,D116,D120)</f>
         <v>14</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44,D48,D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92,D96,D100,D104,D108,D112,D116,D120)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
         <f aca="false">AVERAGE(E4,E8,E12,E16,E20,E24,E28,E32,E36,E40,E44,E48,E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92,E96,E100,E104,E108,E112,E116,E120)</f>
-        <v>702.059523809524</v>
-      </c>
-      <c r="R4" s="0" t="n">
+        <v>702.12619047619</v>
+      </c>
+      <c r="R4" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E4,E8,E12,E16,E20,E24,E28,E32,E36,E40,E44,E48,E52,E56,E60,E64,E68,E72,E76,E80,E84,E88,E92,E96,E100,E104,E108,E112,E116,E120)</f>
-        <v>0.746211140200724</v>
+        <v>0.680556828172258</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <f aca="false">AVERAGE(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44,F48,F52,F56,F60,F64,F68,F72,F76,F80,F84,F88,F92,F96,F100,F104,F108,F112,F116,F120)</f>
+        <v>1969.43333333333</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44,F48,F52,F56,F60,F64,F68,F72,F76,F80,F84,F88,F92,F96,F100,F104,F108,F112,F116,F120)</f>
+        <v>76.033625602244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,54 +533,62 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1053.42857142857</v>
+        <v>580</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>702.428571428571</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">AVERAGE(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61,B65,B69,B73,B77,B81,B85,B89,B93,B97,B101,B105,B109,B113,B117,B121)</f>
-        <v>13.1666666666667</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>13.2666666666667</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61,B65,B69,B73,B77,B81,B85,B89,B93,B97,B101,B105,B109,B113,B117,B121)</f>
-        <v>3.6885709367661</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>4.11447309978919</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <f aca="false">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61,C65,C69,C73,C77,C81,C85,C89,C93,C97,C101,C105,C109,C113,C117,C121)</f>
-        <v>726.615505072126</v>
-      </c>
-      <c r="N5" s="0" t="n">
+        <v>717.582228684827</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61,C65,C69,C73,C77,C81,C85,C89,C93,C97,C101,C105,C109,C113,C117,C121)</f>
-        <v>272.759777980393</v>
-      </c>
-      <c r="O5" s="0" t="n">
+        <v>227.235299175484</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <f aca="false">AVERAGE(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45,D49,D53,D57,D61,D65,D69,D73,D77,D81,D85,D89,D93,D97,D101,D105,D109,D113,D117,D121)</f>
         <v>14</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45,D49,D53,D57,D61,D65,D69,D73,D77,D81,D85,D89,D93,D97,D101,D105,D109,D113,D117,D121)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <f aca="false">AVERAGE(E5,E9,E13,E17,E21,E25,E29,E33,E37,E41,E45,E49,E53,E57,E61,E65,E69,E73,E77,E81,E85,E89,E93,E97,E101,E105,E109,E113,E117,E121)</f>
-        <v>702.133333333333</v>
-      </c>
-      <c r="R5" s="0" t="n">
+        <v>702.22619047619</v>
+      </c>
+      <c r="R5" s="1" t="n">
         <f aca="false">_xlfn.STDEV.P(E5,E9,E13,E17,E21,E25,E29,E33,E37,E41,E45,E49,E53,E57,E61,E65,E69,E73,E77,E81,E85,E89,E93,E97,E101,E105,E109,E113,E117,E121)</f>
-        <v>0.567166646176561</v>
+        <v>0.740491501908755</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <f aca="false">AVERAGE(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45,F49,F53,F57,F61,F65,F69,F73,F77,F81,F85,F89,F93,F97,F101,F105,F109,F113,F117,F121)</f>
+        <v>1968.9</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45,F49,F53,F57,F61,F65,F69,F73,F77,F81,F85,F89,F93,F97,F101,F105,F109,F113,F117,F121)</f>
+        <v>84.3442746525611</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,96 +596,130 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>354.035714285714</v>
+        <v>405.5</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>700.928571428571</v>
+        <v>702.714285714286</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>12</v>
-      </c>
+        <v>157.903225806452</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>612.066666666667</v>
+        <v>1157.85714285714</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>701.428571428571</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1920</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>799.666666666667</v>
+        <v>698.769230769231</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>14</v>
+        <v>1943</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">AVERAGE(G2,G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46,G50,G54,G58,G62,G66,G70,G74,G78,G82,G86,G90,G94,G98,G102,G106,G110,G114,G118)</f>
-        <v>54.0666666666667</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>54.6666666666667</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <f aca="false">_xlfn.STDEV.P(G2,G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46,G50,G54,G58,G62,G66,G70,G74,G78,G82,G86,G90,G94,G98,G102,G106,G110,G114,G118)</f>
-        <v>9.99644381212083</v>
-      </c>
+        <v>10.5746026980791</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">AVERAGE(H2,H6,H10,H14,H18,H22,H26,H30,H34,H38,H42,H46,H50,H54,H58,H62,H66,H70,H74,H78,H82,H86,H90,H94,H98,H102,H106,H110,H114,H118)</f>
+        <v>185.111744689401</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">_xlfn.STDEV.P(H2,H6,H10,H14,H18,H22,H26,H30,H34,H38,H42,H46,H50,H54,H58,H62,H66,H70,H74,H78,H82,H86,H90,H94,H98,H102,H106,H110,H114,H118)</f>
+        <v>35.590475926682</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>558</v>
+        <v>543.888888888889</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>702</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>515.529411764706</v>
+        <v>792.916666666667</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>14</v>
@@ -571,13 +739,16 @@
         <v>702.428571428571</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>13</v>
+        <v>207.541666666667</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,19 +756,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>411.416666666667</v>
+        <v>1298.57142857143</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,19 +776,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>492.277777777778</v>
+        <v>586</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>703.142857142857</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,19 +796,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>619.75</v>
+        <v>822.833333333333</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>703</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,30 +819,25 @@
         <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>699.857142857143</v>
+        <v>599.357142857143</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>701</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">14*22</f>
-        <v>308</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <f aca="false">10000-308</f>
-        <v>9692</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,19 +845,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>553.833333333333</v>
+        <v>706.75</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>701.857142857143</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,19 +865,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>685.357142857143</v>
+        <v>624.461538461538</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,16 +888,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>881.272727272727</v>
+        <v>834.090909090909</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>703.214285714286</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,24 +905,27 @@
         <v>0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>410.625</v>
+        <v>828.083333333333</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>702</v>
+        <v>701.5</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H18" s="0" t="n">
+        <v>231.232558139535</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -765,19 +934,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>552.470588235294</v>
+        <v>771.583333333333</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>701.214285714286</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,19 +954,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>541.588235294118</v>
+        <v>903.909090909091</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>701.857142857143</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,19 +974,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>410.45</v>
+        <v>851.125</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>702</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,25 +994,28 @@
         <v>0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>585.5625</v>
+        <v>644.230769230769</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>1934</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>11</v>
+        <v>206.659574468085</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,19 +1023,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>490.75</v>
+        <v>1079.22222222222</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>702.214285714286</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,19 +1043,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>990.2</v>
+        <v>477.411764705882</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>702.5</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>721.363636363636</v>
+        <v>1150.375</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.5</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,25 +1083,28 @@
         <v>0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>658.2</v>
+        <v>528.588235294118</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>1806</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>12</v>
+        <v>176.196078431373</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,19 +1112,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>766.461538461538</v>
+        <v>866</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>701.142857142857</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,19 +1132,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1509.5</v>
+        <v>616.214285714286</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>703.571428571429</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,19 +1152,19 @@
         <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>610.357142857143</v>
+        <v>702</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>702.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,24 +1172,27 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>687.769230769231</v>
+        <v>867.888888888889</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>703.071428571429</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1832</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H30" s="0" t="n">
+        <v>222.071428571429</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1023,19 +1201,19 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>993.555555555556</v>
+        <v>1204.14285714286</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>459.35</v>
+        <v>973.777777777778</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>702</v>
+        <v>701.714285714286</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,19 +1241,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>703.571428571429</v>
+        <v>548.647058823529</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>702.5</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,24 +1261,27 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>481.117647058824</v>
+        <v>409.826086956522</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>1948</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H34" s="0" t="n">
+        <v>130.855263157895</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1112,16 +1293,16 @@
         <v>15</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>500.333333333333</v>
+        <v>663</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.428571428571</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>740.307692307692</v>
+        <v>495.65</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>14</v>
@@ -1141,7 +1322,7 @@
         <v>701.714285714286</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,19 +1330,19 @@
         <v>3</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>514.538461538462</v>
+        <v>426.833333333333</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>703.285714285714</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,25 +1350,28 @@
         <v>0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>665.2</v>
+        <v>681.090909090909</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>700.285714285714</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0</v>
+        <v>2168</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>13</v>
+        <v>179.326923076923</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,19 +1379,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>811</v>
+        <v>666.071428571429</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>703.214285714286</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,19 +1399,19 @@
         <v>2</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>742.916666666667</v>
+        <v>579.25</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>704.142857142857</v>
+        <v>702.714285714286</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,19 +1419,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>468.210526315789</v>
+        <v>810.818181818182</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>703.142857142857</v>
+        <v>700.928571428571</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,25 +1439,28 @@
         <v>0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>520.736842105263</v>
+        <v>889.777777777778</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>702</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>1997</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>12</v>
+        <v>254.205128205128</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>735.230769230769</v>
+        <v>687.25</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,19 +1488,19 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1058.22222222222</v>
+        <v>845.545454545455</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.5</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,19 +1508,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>495.8</v>
+        <v>1416.28571428571</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,24 +1528,27 @@
         <v>0</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>563.8125</v>
+        <v>618.153846153846</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>703.428571428572</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0</v>
+        <v>1779</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H46" s="0" t="n">
+        <v>193.529411764706</v>
+      </c>
+      <c r="I46" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1367,19 +1557,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>405.04347826087</v>
+        <v>877</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.714285714286</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,19 +1577,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>536.777777777778</v>
+        <v>673.153846153846</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>702.5</v>
+        <v>702.857142857143</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,19 +1597,19 @@
         <v>3</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>842.090909090909</v>
+        <v>705</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,24 +1617,27 @@
         <v>0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>567.647058823529</v>
+        <v>648.8</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>700.642857142857</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H50" s="0" t="n">
+        <v>154.476190476191</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1453,19 +1646,19 @@
         <v>1</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>831.9</v>
+        <v>447.733333333333</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,19 +1666,19 @@
         <v>2</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>990.8</v>
+        <v>726.166666666667</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,19 +1686,19 @@
         <v>3</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>657.6</v>
+        <v>383.238095238095</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>701.428571428571</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,24 +1706,27 @@
         <v>0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1116</v>
+        <v>717.692307692308</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>702</v>
+        <v>702.285714285714</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>1959</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H54" s="0" t="n">
+        <v>181.537037037037</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1539,19 +1735,19 @@
         <v>1</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>763.666666666667</v>
+        <v>662.5</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>701.5</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,19 +1755,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>619.1875</v>
+        <v>700.214285714286</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>701.428571428571</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,16 +1778,16 @@
         <v>13</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>736.692307692308</v>
+        <v>635.923076923077</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,24 +1795,27 @@
         <v>0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>566.375</v>
+        <v>614.571428571429</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H58" s="0" t="n">
+        <v>192.038461538462</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1625,19 +1824,19 @@
         <v>1</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>928.444444444444</v>
+        <v>734.769230769231</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>702.142857142857</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,19 +1844,19 @@
         <v>2</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1595.2</v>
+        <v>860.5</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.5</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,19 +1864,19 @@
         <v>3</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>620.3125</v>
+        <v>665.733333333333</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,24 +1884,27 @@
         <v>0</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>1051.22222222222</v>
+        <v>826.166666666667</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>700.857142857143</v>
+        <v>702.714285714286</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H62" s="0" t="n">
+        <v>260.894736842105</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1711,19 +1913,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1379.71428571429</v>
+        <v>1032.66666666667</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>700.642857142857</v>
+        <v>701.5</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,19 +1933,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>721.846153846154</v>
+        <v>803.777777777778</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>703.285714285714</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,19 +1953,19 @@
         <v>3</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1892.4</v>
+        <v>837.125</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,24 +1973,27 @@
         <v>0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>600.625</v>
+        <v>498.333333333333</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>701</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H66" s="0" t="n">
+        <v>146.646153846154</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1797,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>959.222222222222</v>
+        <v>553.166666666667</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>14</v>
@@ -1809,7 +2014,7 @@
         <v>702.785714285714</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,19 +2022,19 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>1086.22222222222</v>
+        <v>432.454545454545</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.714285714286</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,19 +2042,19 @@
         <v>3</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>816.833333333333</v>
+        <v>733.230769230769</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>701.642857142857</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,25 +2062,28 @@
         <v>0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1009.44444444444</v>
+        <v>657.6</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>701.142857142857</v>
+        <v>700.714285714286</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0</v>
+        <v>2137</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>13</v>
+        <v>158.095238095238</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>495.25</v>
+        <v>664</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>701.428571428571</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,19 +2111,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>742.769230769231</v>
+        <v>546.352941176471</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>700.857142857143</v>
+        <v>701.5</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,19 +2131,19 @@
         <v>3</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>803.416666666667</v>
+        <v>564</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>702.5</v>
+        <v>700.857142857143</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,24 +2151,27 @@
         <v>0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>554.166666666667</v>
+        <v>415.95652173913</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>701.428571428571</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H74" s="0" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1969,19 +2180,19 @@
         <v>1</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>798.545454545455</v>
+        <v>455.285714285714</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>702.5</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,19 +2200,19 @@
         <v>2</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>530.214285714286</v>
+        <v>638.4</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>700.928571428571</v>
+        <v>701.357142857143</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,19 +2220,19 @@
         <v>3</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>672.416666666667</v>
+        <v>581.8125</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>701.571428571429</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,25 +2240,28 @@
         <v>0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>406.4</v>
+        <v>935.666666666667</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>703.714285714286</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>1947</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>12</v>
+        <v>209.787234042553</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,19 +2269,19 @@
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>902.363636363636</v>
+        <v>809.25</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>701.5</v>
+        <v>702.142857142857</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,16 +2292,16 @@
         <v>14</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>569.214285714286</v>
+        <v>704.285714285714</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>702</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>443.52380952381</v>
+        <v>821.583333333333</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>14</v>
@@ -2107,7 +2321,7 @@
         <v>701.857142857143</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,24 +2329,27 @@
         <v>0</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>1379.28571428571</v>
+        <v>625.666666666667</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>700.214285714286</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>2169</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H82" s="0" t="n">
+        <v>161.810344827586</v>
+      </c>
+      <c r="I82" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2141,19 +2358,19 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>614.666666666667</v>
+        <v>419.5</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>700.5</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,19 +2378,19 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>631.666666666667</v>
+        <v>833.2</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>701.357142857143</v>
+        <v>700.714285714286</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,19 +2398,19 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>662.733333333333</v>
+        <v>787.363636363636</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>700.642857142857</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>747.153846153846</v>
+        <v>550.388888888889</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>14</v>
@@ -2213,13 +2430,16 @@
         <v>702.071428571429</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0</v>
+        <v>1918</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>12</v>
+        <v>141.528571428571</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,19 +2447,19 @@
         <v>1</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>936</v>
+        <v>547.777777777778</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,19 +2467,19 @@
         <v>2</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>554.833333333333</v>
+        <v>887.454545454546</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>701.142857142857</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,19 +2487,19 @@
         <v>3</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>1067.42857142857</v>
+        <v>415.826086956522</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>702.5</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,24 +2507,27 @@
         <v>0</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>1070</v>
+        <v>702.857142857143</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>703.071428571429</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0</v>
+        <v>2081</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H90" s="0" t="n">
+        <v>209.36170212766</v>
+      </c>
+      <c r="I90" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2313,19 +2536,19 @@
         <v>1</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>647.8</v>
+        <v>660.142857142857</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,19 +2556,19 @@
         <v>2</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>1111</v>
+        <v>740</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>702.714285714286</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,19 +2576,19 @@
         <v>3</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>877.555555555556</v>
+        <v>1059.28571428571</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>703</v>
+        <v>701.714285714286</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,25 +2596,28 @@
         <v>0</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>683.357142857143</v>
+        <v>670.461538461538</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>702.642857142857</v>
+        <v>702.785714285714</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0</v>
+        <v>1869</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>13</v>
+        <v>146.632352941177</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,19 +2625,19 @@
         <v>1</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>612.357142857143</v>
+        <v>586.529411764706</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,19 +2645,19 @@
         <v>2</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>804.916666666667</v>
+        <v>491.315789473684</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>702.5</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,19 +2665,19 @@
         <v>3</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>617</v>
+        <v>452.842105263158</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>702.357142857143</v>
+        <v>703.214285714286</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,24 +2685,27 @@
         <v>0</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>763.909090909091</v>
+        <v>663.5</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0</v>
+        <v>1872</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H98" s="0" t="n">
+        <v>166.066666666667</v>
+      </c>
+      <c r="I98" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2485,19 +2714,19 @@
         <v>1</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>817.833333333333</v>
+        <v>586.117647058824</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>702.071428571429</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,19 +2734,19 @@
         <v>2</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>2436.75</v>
+        <v>714.769230769231</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,16 +2757,16 @@
         <v>16</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>516.75</v>
+        <v>501.375</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>702.071428571429</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,24 +2774,27 @@
         <v>0</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>491.866666666667</v>
+        <v>1952</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>703.285714285714</v>
+        <v>700.5</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H102" s="0" t="n">
+        <v>244.35</v>
+      </c>
+      <c r="I102" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2571,19 +2803,19 @@
         <v>1</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>884</v>
+        <v>814.5</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>703.357142857143</v>
+        <v>701.642857142857</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,19 +2823,19 @@
         <v>2</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>734.583333333333</v>
+        <v>637.642857142857</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>703.785714285714</v>
+        <v>701</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,19 +2843,19 @@
         <v>3</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>734.25</v>
+        <v>953.666666666667</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>703.642857142857</v>
+        <v>700.785714285714</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,24 +2863,27 @@
         <v>0</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>869</v>
+        <v>587.588235294118</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>701.214285714286</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H106" s="0" t="n">
+        <v>140.69014084507</v>
+      </c>
+      <c r="I106" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2657,19 +2892,19 @@
         <v>1</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>591.1875</v>
+        <v>478.75</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>701.214285714286</v>
+        <v>702.285714285714</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,19 +2912,19 @@
         <v>2</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>590.5</v>
+        <v>552.111111111111</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>701.785714285714</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,19 +2932,19 @@
         <v>3</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>531.588235294118</v>
+        <v>518.1875</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>701.928571428571</v>
+        <v>703</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,24 +2952,27 @@
         <v>0</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>511.444444444445</v>
+        <v>869.545454545455</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>701.714285714286</v>
+        <v>703.071428571429</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H110" s="0" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="I110" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2743,19 +2981,19 @@
         <v>1</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>896.727272727273</v>
+        <v>694.428571428572</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>701.571428571429</v>
+        <v>701.071428571429</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,19 +3001,19 @@
         <v>2</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>713.461538461538</v>
+        <v>711.071428571429</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>702.571428571429</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,19 +3021,19 @@
         <v>3</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>762.230769230769</v>
+        <v>904.090909090909</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>701.285714285714</v>
+        <v>703.214285714286</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,25 +3041,28 @@
         <v>0</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>694.214285714286</v>
+        <v>836.272727272727</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>701</v>
+        <v>702.642857142857</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>12</v>
+        <v>177.428571428571</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,19 +3070,19 @@
         <v>1</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>540.8</v>
+        <v>657.307692307692</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>702</v>
+        <v>702.5</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,19 +3090,19 @@
         <v>2</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>843.3</v>
+        <v>505.722222222222</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>702.214285714286</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,19 +3110,19 @@
         <v>3</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>921.9</v>
+        <v>709.714285714286</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>701.857142857143</v>
+        <v>702.928571428572</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,22 +3133,25 @@
         <v>16</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>562.25</v>
+        <v>622.6875</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>701.785714285714</v>
+        <v>702.571428571429</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>12</v>
+        <v>171.775862068966</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,19 +3159,19 @@
         <v>1</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>724.615384615385</v>
+        <v>567.4375</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>702.428571428571</v>
+        <v>701.928571428571</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,19 +3179,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>883</v>
+        <v>740.166666666667</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>701.142857142857</v>
+        <v>701</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,19 +3199,19 @@
         <v>3</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>585</v>
+        <v>610.571428571429</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>702.285714285714</v>
+        <v>702.357142857143</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>0</v>
+        <v>1932</v>
       </c>
     </row>
   </sheetData>
